--- a/flags.xlsx
+++ b/flags.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
   <si>
     <t>行号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,101 +128,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">未知(可能为设置里的“简化视觉效果”，影响到Jevil的战斗背景)    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未知(可能与battle音乐有关)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否与 room_drak1 房间里的闪烁的星星进行对话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>总音量</t>
+  </si>
+  <si>
+    <t>背景音乐音量</t>
+  </si>
+  <si>
+    <t>音效音量</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>0&lt;=int&lt;=2</t>
+  </si>
+  <si>
+    <t>是否启用脚步声</t>
+  </si>
+  <si>
+    <t>暂时跳过</t>
+  </si>
+  <si>
+    <t>可能未使用</t>
+  </si>
+  <si>
+    <t>监狱里的铁制镣铐是否被拿走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监狱里的苔藓是否被吃掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响对话</t>
+  </si>
+  <si>
+    <t>0-没有把手册扔在地上，1-扔过一次，2-扔过两次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否给平原的教程捐款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知（在许多毫不相干的脚本里都有）</t>
+  </si>
+  <si>
+    <t>未知（影响对话）</t>
+  </si>
+  <si>
+    <t>设置里的 shakeoff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能与 battle 音乐有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能为设置里的“简化视觉效果”，影响到 Jevil 的战斗背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是否启用自动奔跑</t>
-  </si>
-  <si>
-    <t>未知(设置里的shakeoff)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总音量</t>
-  </si>
-  <si>
-    <t>背景音乐音量</t>
-  </si>
-  <si>
-    <t>音效音量</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>0&lt;=int&lt;=2</t>
-  </si>
-  <si>
-    <t>未知(在许多毫不相干的脚本里都有)</t>
-  </si>
-  <si>
-    <t>是否启用脚步声</t>
-  </si>
-  <si>
-    <t>未知(可能与彩蛋房间room_man有关)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raisel对话框贴图选择（0:默认, 1:戴帽子(类似UT里的船夫), 2:取下帽子(暗世界结尾时)）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计时器，用来计时(目前只用在与sans的对话上)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时跳过</t>
-  </si>
-  <si>
-    <t>可能未使用</t>
-  </si>
-  <si>
-    <t>某房间里可以拿2个黑暗糖果的树上剩下的糖果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监狱里的铁制镣铐是否被拿走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监狱里的苔藓是否被吃掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为true时，room_cc_prison_prejoker房间中的箱子会消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知(影响一个对话，此flag与flag[233]联动)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于等于1时，第一个商店里的谈话选项里的“奇怪的犯人”会变为白色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知(与开头的黑暗之眼(darkeyes)谜题有关)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知(影响对话)</t>
-  </si>
-  <si>
-    <r>
-      <t>在教程里：人偶满血且MISS次数等于 9 时设置为 6，攻击人偶次数大于 3 时设置为 4，此值大于等于 4 时会触发“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raisel 对话框贴图选择（0:默认, 1:戴帽子（类似UT里的船夫）, 2:取下帽子（暗世界结尾时））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时器，用来计时（目前只用在与 sans 的对话上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能与彩蛋房间 room_man 有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_dark3a 中的闪光的碎片是否去取出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某房间里可以拿 2 个黑暗糖果的树上剩下的糖果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知（影响一个对话，此 flag 与 flag[233] 联动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为 true 时，room_cc_prison_prejoker 房间中的箱子会消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于等于 1 时，第一个商店里的谈话选项里的“奇怪的犯人”会变为白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>触发“</t>
     </r>
     <r>
       <rPr>
@@ -234,7 +246,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>＊抱歉，Kris。? * 下次我会试着做个更好的老师。</t>
+      <t>* 嘿，你走的还挺快。</t>
     </r>
     <r>
       <rPr>
@@ -245,7 +257,40 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>”(Raisel 对话)以及“</t>
+      <t>”（Susie 对话）时会被设置为 true ，可能未使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知（与开头的黑暗之眼（darkeyes）谜题有关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在教程里：人偶满血且 Miss 次数等于 9 时设置为 6，攻击人偶次数大于 3 时设置为 4，此值大于等于 4 时会触发“</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 抱歉，Kris。?  * 下次我会试着做个更好的老师。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”（Raisel 对话）以及“</t>
     </r>
     <r>
       <rPr>
@@ -286,7 +331,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>* 嘿，你走的还挺快。</t>
+      <t>* 老天哪。得了吧。 * 你连路都不知道呢。</t>
     </r>
     <r>
       <rPr>
@@ -297,64 +342,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>”(Susie对话)时会被设置为true，可能未使用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响对话</t>
-  </si>
-  <si>
-    <t>0-没有把手册扔在地上，1-扔过一次，2-扔过两次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在战斗中说服方钻后设置为true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已显示Field of Hopes and Dreams Logo(在第一次进入平原时会显示)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响room_field2房间里的obj_event和obj_npc_facing对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知，影响room_field_boxpuzzle房间里的谜题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队伍名字(1-“$！？#小分队”，2-“Lancer粉丝俱乐部”，3-“快乐帮”)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否给平原的教程捐款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已完成Rouxls Kaard的第一个谜题</t>
-  </si>
-  <si>
-    <t>是否已完成Rouxls Kaard的第二个谜题</t>
-  </si>
-  <si>
-    <t>未知，此flag与flag[251]联动，此flag为1则flag[251]也为1，当此flag为0时obj_npc_puzzlemaster1会被销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知，与Lancer的机器有关</t>
-  </si>
-  <si>
-    <t>未知，与Susie在监狱里的解谜有关</t>
-  </si>
-  <si>
-    <t>是否与room_forest_area1房间的“蜜蜂罐”对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>触发“</t>
+      <t>”（Susie 对话）时会被设置为 2，触发“</t>
     </r>
     <r>
       <rPr>
@@ -366,7 +354,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>* 老天哪。得了吧。* 你连路都不知道呢。</t>
+      <t>* 呼...噗…  * 什么，你想赛跑吗？</t>
     </r>
     <r>
       <rPr>
@@ -377,18 +365,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>”(Susie对话)时会被设置为 2，触发“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
+      <t>”时会被设置为 1，可能未使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战斗中说服方钻后设置为 true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已显示 Field of Hopes and Dreams Logo（在第一次进入平原时会显示）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响 room_field2 房间里的 obj_event 和obj_npc_facing 对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知，影响 room_field_boxpuzzle 房间里的谜题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>队伍名字（1-“</t>
     </r>
     <r>
       <rPr>
@@ -400,7 +399,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 呼...噗… * 什么，你想赛跑吗？</t>
+      <t>$！？#小分队</t>
     </r>
     <r>
       <rPr>
@@ -411,18 +410,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>”时会被设置为</t>
+      <t>”，2-“</t>
     </r>
     <r>
       <rPr>
+        <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>Lancer 粉丝俱乐部</t>
     </r>
     <r>
       <rPr>
@@ -433,8 +433,55 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1，可能未使用</t>
-    </r>
+      <t>”，3-“</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>快乐帮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知，此 flag 与 flag[251] 联动，此 flag 为 1 则flag[251] 也为 1，当此 flag 为 0 时obj_npc_puzzlemaster1 会被销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已完成 Rouxls Kaard 的第一个谜题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已完成 Rouxls Kaard 的第二个谜题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知，与 Lancer 的机器有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知，与 Susie 在监狱里的解谜有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否与 room_forest_area1 房间的“蜜蜂罐”对话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,14 +524,6 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="4"/>
       <name val="宋体"/>
@@ -834,7 +873,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -904,10 +943,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -918,10 +957,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>10</v>
       </c>
@@ -929,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -940,7 +979,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -951,10 +990,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -990,7 +1029,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1004,7 +1043,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1018,7 +1057,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1034,10 +1073,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1059,18 +1098,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="40.5">
+    <row r="19" spans="1:5" ht="27">
       <c r="A19" s="4">
         <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1081,7 +1120,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1092,18 +1131,21 @@
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="27">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4">
         <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1119,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1130,10 +1172,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1151,19 +1193,22 @@
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="27">
+      <c r="D27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1193,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1204,7 +1249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27">
+    <row r="33" spans="1:5">
       <c r="A33" s="4">
         <v>108</v>
       </c>
@@ -1212,7 +1257,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1231,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1250,7 +1295,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1269,13 +1314,13 @@
         <v>18</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="4">
         <v>201</v>
       </c>
@@ -1283,10 +1328,10 @@
         <v>15</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="40.5">
@@ -1294,10 +1339,10 @@
         <v>202</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1308,7 +1353,10 @@
         <v>17</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1316,10 +1364,13 @@
         <v>204</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="67.5">
@@ -1327,10 +1378,10 @@
         <v>205</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1341,18 +1392,18 @@
         <v>17</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="27">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="4">
         <v>207</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1363,13 +1414,13 @@
         <v>15</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="40.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="27">
       <c r="A48" s="4">
         <v>209</v>
       </c>
@@ -1377,43 +1428,43 @@
         <v>15</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="27">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="27">
       <c r="A49" s="4">
         <v>210</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="4">
         <v>211</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="27">
+    <row r="51" spans="1:5">
       <c r="A51" s="4">
         <v>212</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="4">
         <v>213</v>
       </c>
@@ -1421,18 +1472,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="27">
+    <row r="53" spans="1:5" ht="27">
       <c r="A53" s="4">
         <v>214</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="40.5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="40.5">
       <c r="A54" s="4">
         <v>215</v>
       </c>
@@ -1442,8 +1493,11 @@
       <c r="D54" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="4">
         <v>216</v>
       </c>
@@ -1451,10 +1505,10 @@
         <v>15</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="4">
         <v>217</v>
       </c>
@@ -1462,10 +1516,10 @@
         <v>15</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="4">
         <v>218</v>
       </c>
@@ -1473,10 +1527,10 @@
         <v>15</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="4">
         <v>219</v>
       </c>
@@ -1484,15 +1538,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
         <v>14</v>
       </c>
@@ -1500,15 +1557,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" s="4">
         <v>229</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="4">
         <v>230</v>
       </c>
@@ -1516,15 +1576,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" s="4">
         <v>231</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="27">
+        <v>71</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="4">
         <v>232</v>
       </c>
@@ -1532,10 +1595,10 @@
         <v>15</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="4">
         <v>233</v>
       </c>
@@ -1545,8 +1608,11 @@
       <c r="D65" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="4">
         <v>234</v>
       </c>

--- a/flags.xlsx
+++ b/flags.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Others\Github\deltarune-studies\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D074231-6086-4850-8A09-657CF0E793A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="23655" windowHeight="9570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t>行号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,12 +108,6 @@
   <si>
     <t>0&lt;=float&lt;=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0&lt;=float&lt;=2</t>
-  </si>
-  <si>
-    <t>0&lt;=float&lt;=3</t>
   </si>
   <si>
     <t>未使用</t>
@@ -484,12 +484,16 @@
     <t>是否与 room_forest_area1 房间的“蜜蜂罐”对话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0&lt;=float&lt;=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,11 +586,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -628,7 +640,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,9 +672,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,6 +724,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -869,23 +917,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="50.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -899,10 +947,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -910,10 +958,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>6</v>
       </c>
@@ -921,10 +969,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>7</v>
       </c>
@@ -932,10 +980,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>8</v>
       </c>
@@ -943,13 +991,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>9</v>
       </c>
@@ -957,10 +1005,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>10</v>
       </c>
@@ -968,10 +1016,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>11</v>
       </c>
@@ -979,10 +1027,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>12</v>
       </c>
@@ -990,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>13</v>
       </c>
@@ -1004,10 +1052,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>14</v>
       </c>
@@ -1015,10 +1063,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>15</v>
       </c>
@@ -1029,10 +1077,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>16</v>
       </c>
@@ -1040,13 +1088,13 @@
         <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>17</v>
       </c>
@@ -1054,40 +1102,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>29</v>
       </c>
@@ -1095,24 +1143,24 @@
         <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>31</v>
       </c>
@@ -1120,10 +1168,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>32</v>
       </c>
@@ -1131,40 +1179,40 @@
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>53</v>
       </c>
@@ -1172,21 +1220,21 @@
         <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>100</v>
       </c>
@@ -1194,32 +1242,32 @@
         <v>15</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>104</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>105</v>
       </c>
@@ -1227,10 +1275,10 @@
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>106</v>
       </c>
@@ -1238,18 +1286,18 @@
         <v>15</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>107</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>108</v>
       </c>
@@ -1257,18 +1305,18 @@
         <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>112</v>
       </c>
@@ -1276,18 +1324,18 @@
         <v>15</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>115</v>
       </c>
@@ -1295,18 +1343,18 @@
         <v>18</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>200</v>
       </c>
@@ -1314,13 +1362,13 @@
         <v>18</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>201</v>
       </c>
@@ -1328,24 +1376,24 @@
         <v>15</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="40.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>202</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>203</v>
       </c>
@@ -1353,38 +1401,38 @@
         <v>17</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>204</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="67.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>205</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>206</v>
       </c>
@@ -1392,21 +1440,21 @@
         <v>17</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>207</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>208</v>
       </c>
@@ -1414,13 +1462,13 @@
         <v>15</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>209</v>
       </c>
@@ -1428,62 +1476,62 @@
         <v>15</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="27">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>210</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>211</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>212</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>213</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>214</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="40.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>215</v>
       </c>
@@ -1491,13 +1539,13 @@
         <v>17</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>216</v>
       </c>
@@ -1505,10 +1553,10 @@
         <v>15</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>217</v>
       </c>
@@ -1516,10 +1564,10 @@
         <v>15</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>218</v>
       </c>
@@ -1527,67 +1575,67 @@
         <v>15</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>219</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>229</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>230</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>231</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>232</v>
       </c>
@@ -1595,10 +1643,10 @@
         <v>15</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>233</v>
       </c>
@@ -1606,13 +1654,13 @@
         <v>15</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>234</v>
       </c>
@@ -1625,12 +1673,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1638,12 +1686,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
